--- a/Presets/Yaesu_FT-8800R/Yaesu_FT-8800R_Reference.xlsx
+++ b/Presets/Yaesu_FT-8800R/Yaesu_FT-8800R_Reference.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabuhler/Projects/_jb/RadioPresets/Yaesu_FT-8800R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabuhler/Projects/_jb/RadioPresets/Presets/Yaesu_FT-8800R/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23620" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18620" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="581">
   <si>
     <t>Name</t>
   </si>
@@ -88,15 +88,9 @@
     <t>SMPX02</t>
   </si>
   <si>
-    <t>SMPX03</t>
-  </si>
-  <si>
     <t>2M C</t>
   </si>
   <si>
-    <t>ARES</t>
-  </si>
-  <si>
     <t>FARNS</t>
   </si>
   <si>
@@ -109,12 +103,6 @@
     <t>LAKEMT</t>
   </si>
   <si>
-    <t>AREC01</t>
-  </si>
-  <si>
-    <t>AREC02</t>
-  </si>
-  <si>
     <t>SMPX04</t>
   </si>
   <si>
@@ -745,72 +733,6 @@
     <t>NJ7J</t>
   </si>
   <si>
-    <t>FRS1</t>
-  </si>
-  <si>
-    <t>FRS2</t>
-  </si>
-  <si>
-    <t>FRS3</t>
-  </si>
-  <si>
-    <t>FRS4</t>
-  </si>
-  <si>
-    <t>FRS5</t>
-  </si>
-  <si>
-    <t>FRS6</t>
-  </si>
-  <si>
-    <t>FRS7</t>
-  </si>
-  <si>
-    <t>FRS8</t>
-  </si>
-  <si>
-    <t>FRS9</t>
-  </si>
-  <si>
-    <t>FRS10</t>
-  </si>
-  <si>
-    <t>FRS11</t>
-  </si>
-  <si>
-    <t>FRS12</t>
-  </si>
-  <si>
-    <t>FRS13</t>
-  </si>
-  <si>
-    <t>FRS14</t>
-  </si>
-  <si>
-    <t>GMRS1</t>
-  </si>
-  <si>
-    <t>GMRS2</t>
-  </si>
-  <si>
-    <t>GMRS3</t>
-  </si>
-  <si>
-    <t>GMRS4</t>
-  </si>
-  <si>
-    <t>GMRS5</t>
-  </si>
-  <si>
-    <t>GMRS6</t>
-  </si>
-  <si>
-    <t>GMRS7</t>
-  </si>
-  <si>
-    <t>GMRS8</t>
-  </si>
-  <si>
     <t>APRS</t>
   </si>
   <si>
@@ -1378,15 +1300,6 @@
     <t>FRS</t>
   </si>
   <si>
-    <t>GMRS</t>
-  </si>
-  <si>
-    <t>Herriman simplex</t>
-  </si>
-  <si>
-    <t>Utah ARES</t>
-  </si>
-  <si>
     <t>Farnsworth Peak</t>
   </si>
   <si>
@@ -1396,9 +1309,6 @@
     <t>Curry Peak</t>
   </si>
   <si>
-    <t>Usual simplex freq for trail rides</t>
-  </si>
-  <si>
     <t>Herriman High School</t>
   </si>
   <si>
@@ -1541,6 +1451,357 @@
   </si>
   <si>
     <t>Toquerville  (coverage of northern Washington County, Hurrican/LaVerkin - eastern Washington Ccounty areas)</t>
+  </si>
+  <si>
+    <t>GTAA</t>
+  </si>
+  <si>
+    <t>GTAA simplex. AKA TERT1</t>
+  </si>
+  <si>
+    <t>TERT2</t>
+  </si>
+  <si>
+    <t>TERT 2 simplex</t>
+  </si>
+  <si>
+    <t>Trail rides &amp; Herriman simplex</t>
+  </si>
+  <si>
+    <t>AF CYN</t>
+  </si>
+  <si>
+    <t>American Fork Canyon</t>
+  </si>
+  <si>
+    <t>UNI 1</t>
+  </si>
+  <si>
+    <t>UNI 2</t>
+  </si>
+  <si>
+    <t>UNIMED</t>
+  </si>
+  <si>
+    <t>UNI SL</t>
+  </si>
+  <si>
+    <t>UNI 5</t>
+  </si>
+  <si>
+    <t>UNI 6</t>
+  </si>
+  <si>
+    <t>UNI 8</t>
+  </si>
+  <si>
+    <t>AIRMED</t>
+  </si>
+  <si>
+    <t>A2A SL</t>
+  </si>
+  <si>
+    <t>A2A 1</t>
+  </si>
+  <si>
+    <t>A2A 2</t>
+  </si>
+  <si>
+    <t>A2A 3</t>
+  </si>
+  <si>
+    <t>A2A 4</t>
+  </si>
+  <si>
+    <t>A2A 5</t>
+  </si>
+  <si>
+    <t>CIVGRD</t>
+  </si>
+  <si>
+    <t>MILGRD</t>
+  </si>
+  <si>
+    <t>GRND E</t>
+  </si>
+  <si>
+    <t>GRND W</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>APP 1</t>
+  </si>
+  <si>
+    <t>APP 2M</t>
+  </si>
+  <si>
+    <t>APP 2</t>
+  </si>
+  <si>
+    <t>APP 3</t>
+  </si>
+  <si>
+    <t>APP 4</t>
+  </si>
+  <si>
+    <t>APP 5</t>
+  </si>
+  <si>
+    <t>CLEAR</t>
+  </si>
+  <si>
+    <t>TOW16R</t>
+  </si>
+  <si>
+    <t>TOW17</t>
+  </si>
+  <si>
+    <t>TOW16L</t>
+  </si>
+  <si>
+    <t>SL WX</t>
+  </si>
+  <si>
+    <t>OG WX</t>
+  </si>
+  <si>
+    <t>HILL G</t>
+  </si>
+  <si>
+    <t>HILL T</t>
+  </si>
+  <si>
+    <t>OG GND</t>
+  </si>
+  <si>
+    <t>OG TW1</t>
+  </si>
+  <si>
+    <t>OG TW2</t>
+  </si>
+  <si>
+    <t>FRS 1</t>
+  </si>
+  <si>
+    <t>FRS 2</t>
+  </si>
+  <si>
+    <t>FRS 3</t>
+  </si>
+  <si>
+    <t>FRS 4</t>
+  </si>
+  <si>
+    <t>FRS 5</t>
+  </si>
+  <si>
+    <t>FRS 6</t>
+  </si>
+  <si>
+    <t>FRS 7</t>
+  </si>
+  <si>
+    <t>FRS 8</t>
+  </si>
+  <si>
+    <t>FRS 9</t>
+  </si>
+  <si>
+    <t>FRS 10</t>
+  </si>
+  <si>
+    <t>FRS 11</t>
+  </si>
+  <si>
+    <t>FRS 12</t>
+  </si>
+  <si>
+    <t>FRS 13</t>
+  </si>
+  <si>
+    <t>FRS 14</t>
+  </si>
+  <si>
+    <t>FRS 15</t>
+  </si>
+  <si>
+    <t>FRS 16</t>
+  </si>
+  <si>
+    <t>FRS 17</t>
+  </si>
+  <si>
+    <t>FRS 18</t>
+  </si>
+  <si>
+    <t>FRS 19</t>
+  </si>
+  <si>
+    <t>FRS 20</t>
+  </si>
+  <si>
+    <t>FRS 21</t>
+  </si>
+  <si>
+    <t>FRS 22</t>
+  </si>
+  <si>
+    <t>Air Traffic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICOM, Medical/Media coms </t>
+  </si>
+  <si>
+    <t>UNICOM</t>
+  </si>
+  <si>
+    <t>UNICOM SLC</t>
+  </si>
+  <si>
+    <t>Helicopter Air Medical</t>
+  </si>
+  <si>
+    <t>Air to Air, SLC</t>
+  </si>
+  <si>
+    <t>Air to Air</t>
+  </si>
+  <si>
+    <t>Emergency - Civil Guard</t>
+  </si>
+  <si>
+    <t>Emergency - Military Guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL Ground Control East of R/W 16L/34R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL Ground Control West of R/W 16L/34R </t>
+  </si>
+  <si>
+    <t>SLC Final approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL APP/DEP &lt;8K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL APP/DEP &lt;8K, Medical/Media coms </t>
+  </si>
+  <si>
+    <t>SL APP/DEP &gt;8K 110-160 degrees</t>
+  </si>
+  <si>
+    <t>SL APP/DEP &gt;8K 160-250 degrees</t>
+  </si>
+  <si>
+    <t>SL APP/DEP &gt;8K 250-300 degrees</t>
+  </si>
+  <si>
+    <t>SL APP/DEP &gt;8K 300-340 degrees</t>
+  </si>
+  <si>
+    <t>SL APP/DEP &gt;8K 340-110 degrees</t>
+  </si>
+  <si>
+    <t>Taxi / Clearance</t>
+  </si>
+  <si>
+    <t>SLC Tower 16R</t>
+  </si>
+  <si>
+    <t>SLC Tower 17</t>
+  </si>
+  <si>
+    <t>SLC Tower 16L</t>
+  </si>
+  <si>
+    <t>SLC Weather</t>
+  </si>
+  <si>
+    <t>Ogden Weather</t>
+  </si>
+  <si>
+    <t>Hill AFB Ground</t>
+  </si>
+  <si>
+    <t>Hill AFB Tower</t>
+  </si>
+  <si>
+    <t>Ogden Ground</t>
+  </si>
+  <si>
+    <t>Ogden Tower 1</t>
+  </si>
+  <si>
+    <t>Ogden Tower 2</t>
+  </si>
+  <si>
+    <t>FRS Channel 1</t>
+  </si>
+  <si>
+    <t>FRS Channel 2</t>
+  </si>
+  <si>
+    <t>FRS Channel 3</t>
+  </si>
+  <si>
+    <t>FRS Channel 4</t>
+  </si>
+  <si>
+    <t>FRS Channel 5</t>
+  </si>
+  <si>
+    <t>FRS Channel 6</t>
+  </si>
+  <si>
+    <t>FRS Channel 7</t>
+  </si>
+  <si>
+    <t>FRS Channel 8</t>
+  </si>
+  <si>
+    <t>FRS Channel 9</t>
+  </si>
+  <si>
+    <t>FRS Channel 10</t>
+  </si>
+  <si>
+    <t>FRS Channel 11</t>
+  </si>
+  <si>
+    <t>FRS Channel 12</t>
+  </si>
+  <si>
+    <t>FRS Channel 13</t>
+  </si>
+  <si>
+    <t>FRS Channel 14</t>
+  </si>
+  <si>
+    <t>FRS Channel 15 / GMRS 1</t>
+  </si>
+  <si>
+    <t>FRS Channel 16 / GMRS 2</t>
+  </si>
+  <si>
+    <t>FRS Channel 17 / GMRS 3</t>
+  </si>
+  <si>
+    <t>FRS Channel 18 / GMRS 4</t>
+  </si>
+  <si>
+    <t>FRS Channel 19 / GMRS 5</t>
+  </si>
+  <si>
+    <t>FRS Channel 20 / GMRS 6</t>
+  </si>
+  <si>
+    <t>FRS Channel 21 / GMRS 7</t>
+  </si>
+  <si>
+    <t>FRS Channel 22 / GMRS 8</t>
   </si>
 </sst>
 </file>
@@ -1595,8 +1856,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1632,7 +1921,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1647,6 +1936,20 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1661,6 +1964,20 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1943,10 +2260,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H369"/>
+  <dimension ref="A1:H406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="H405" sqref="H405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1965,7 +2282,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1980,10 +2297,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="G1" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1994,13 +2311,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>146.46</v>
+        <v>146.52000000000001</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2008,22 +2325,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>464</v>
       </c>
       <c r="C3">
-        <v>449.25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>118.8</v>
+        <v>145.63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2031,13 +2339,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>466</v>
       </c>
       <c r="C4">
-        <v>146.4</v>
+        <v>147.56</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2045,13 +2353,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>147.56</v>
+        <v>146.46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2059,13 +2367,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>146.52000000000001</v>
+        <v>449.25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>118.8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2073,13 +2390,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>147.4</v>
+        <v>146.62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2087,19 +2410,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>146.62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>0.6</v>
+        <v>146.76</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2107,22 +2424,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>469</v>
       </c>
       <c r="C9">
-        <v>145.44999999999999</v>
+        <v>448.22500000000002</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2130,13 +2447,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>446</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2144,53 +2461,44 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>146.76</v>
+        <v>145.44999999999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>146.88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-      <c r="F12">
-        <v>88.5</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>146.69999999999999</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
+        <v>146.4</v>
       </c>
       <c r="E13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2198,10 +2506,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>446.5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>88.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2209,10 +2523,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>447.8</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>88.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2220,10 +2540,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>438.15</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>88.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2231,10 +2557,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>438.17500000000001</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>88.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2242,7 +2574,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>447.9</v>
@@ -2257,7 +2589,7 @@
         <v>114.8</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2265,10 +2597,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>147.54</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2276,13 +2611,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>147.12</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0.6</v>
@@ -2291,10 +2626,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -2302,13 +2637,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>147.18</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0.6</v>
@@ -2317,10 +2652,10 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2328,13 +2663,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>147.02000000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0.6</v>
@@ -2343,10 +2678,10 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -2354,7 +2689,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>146.86000000000001</v>
@@ -2369,10 +2704,10 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2380,7 +2715,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>146.66999999999999</v>
@@ -2395,10 +2730,10 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -2406,7 +2741,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>449.65</v>
@@ -2421,10 +2756,10 @@
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2432,7 +2767,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>145.27000000000001</v>
@@ -2447,10 +2782,10 @@
         <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -2458,7 +2793,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>145.27000000000001</v>
@@ -2473,10 +2808,10 @@
         <v>103.5</v>
       </c>
       <c r="G27" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -2484,7 +2819,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>146.84</v>
@@ -2499,10 +2834,10 @@
         <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -2510,7 +2845,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>146.94</v>
@@ -2525,10 +2860,10 @@
         <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -2536,7 +2871,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>146.80000000000001</v>
@@ -2551,10 +2886,10 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -2562,7 +2897,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>146.82</v>
@@ -2577,10 +2912,10 @@
         <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -2588,7 +2923,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>146.96</v>
@@ -2603,10 +2938,10 @@
         <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -2614,7 +2949,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>448.6</v>
@@ -2629,10 +2964,10 @@
         <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2640,7 +2975,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>146.88</v>
@@ -2655,10 +2990,10 @@
         <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -2666,13 +3001,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>147.30000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0.6</v>
@@ -2681,10 +3016,10 @@
         <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -2692,7 +3027,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>448.875</v>
@@ -2707,10 +3042,10 @@
         <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2718,7 +3053,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>146.85</v>
@@ -2733,10 +3068,10 @@
         <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2744,16 +3079,16 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>147.44999999999999</v>
       </c>
       <c r="G38" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -2761,7 +3096,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>145.27000000000001</v>
@@ -2776,10 +3111,10 @@
         <v>100</v>
       </c>
       <c r="G39" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2787,7 +3122,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>145.22999999999999</v>
@@ -2802,10 +3137,10 @@
         <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -2813,13 +3148,13 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>147.08000000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>0.6</v>
@@ -2828,10 +3163,10 @@
         <v>77</v>
       </c>
       <c r="G41" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2839,7 +3174,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>146.9</v>
@@ -2854,10 +3189,10 @@
         <v>88.5</v>
       </c>
       <c r="G42" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2865,7 +3200,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>145.49</v>
@@ -2880,10 +3215,10 @@
         <v>136.5</v>
       </c>
       <c r="G43" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2891,13 +3226,13 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>147.04</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0.6</v>
@@ -2906,10 +3241,10 @@
         <v>136.5</v>
       </c>
       <c r="G44" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2917,13 +3252,13 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>147.08000000000001</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>0.6</v>
@@ -2932,10 +3267,10 @@
         <v>136.5</v>
       </c>
       <c r="G45" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2943,7 +3278,7 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>146.61000000000001</v>
@@ -2958,10 +3293,10 @@
         <v>88.5</v>
       </c>
       <c r="G46" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2969,13 +3304,13 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>147.08000000000001</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0.6</v>
@@ -2984,10 +3319,10 @@
         <v>88.5</v>
       </c>
       <c r="G47" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2995,7 +3330,7 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>145.31</v>
@@ -3010,10 +3345,10 @@
         <v>88.5</v>
       </c>
       <c r="G48" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -3021,13 +3356,13 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>147.32</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <v>0.6</v>
@@ -3036,10 +3371,10 @@
         <v>88.5</v>
       </c>
       <c r="G49" t="s">
+        <v>422</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -3047,13 +3382,13 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>147.06</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <v>0.6</v>
@@ -3062,10 +3397,10 @@
         <v>88.5</v>
       </c>
       <c r="G50" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -3073,13 +3408,13 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>147.13999999999999</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0.6</v>
@@ -3088,10 +3423,10 @@
         <v>88.5</v>
       </c>
       <c r="G51" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3099,13 +3434,13 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>147.19999999999999</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>0.6</v>
@@ -3114,10 +3449,10 @@
         <v>88.5</v>
       </c>
       <c r="G52" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3125,7 +3460,7 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>448.27499999999998</v>
@@ -3140,10 +3475,10 @@
         <v>107.2</v>
       </c>
       <c r="G53" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3151,7 +3486,7 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>146.66</v>
@@ -3166,10 +3501,10 @@
         <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3177,13 +3512,13 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>147.1</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>0.6</v>
@@ -3192,10 +3527,10 @@
         <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3203,7 +3538,7 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>146.86000000000001</v>
@@ -3218,10 +3553,10 @@
         <v>100</v>
       </c>
       <c r="G56" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -3229,7 +3564,7 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C57">
         <v>146.76</v>
@@ -3244,10 +3579,10 @@
         <v>88.5</v>
       </c>
       <c r="G57" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -3255,7 +3590,7 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <v>145.49</v>
@@ -3270,10 +3605,10 @@
         <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3281,7 +3616,7 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <v>146.63999999999999</v>
@@ -3296,10 +3631,10 @@
         <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -3307,7 +3642,7 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <v>145.44999999999999</v>
@@ -3322,10 +3657,10 @@
         <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3333,13 +3668,13 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C61">
         <v>162.55000000000001</v>
       </c>
       <c r="G61" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3347,13 +3682,13 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <v>162.4</v>
       </c>
       <c r="G62" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3361,13 +3696,13 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C63">
         <v>162.47499999999999</v>
       </c>
       <c r="G63" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3375,13 +3710,13 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C64">
         <v>162.42500000000001</v>
       </c>
       <c r="G64" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3389,13 +3724,13 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <v>162.44999999999999</v>
       </c>
       <c r="G65" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3403,13 +3738,13 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C66">
         <v>162.5</v>
       </c>
       <c r="G66" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3417,13 +3752,13 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <v>162.52500000000001</v>
       </c>
       <c r="G67" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3431,13 +3766,13 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C68">
         <v>161.65</v>
       </c>
       <c r="G68" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3445,13 +3780,13 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <v>161.77500000000001</v>
       </c>
       <c r="G69" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3459,13 +3794,13 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C70">
         <v>163.27500000000001</v>
       </c>
       <c r="G70" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3473,7 +3808,7 @@
         <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C71">
         <v>145.19</v>
@@ -3488,7 +3823,7 @@
         <v>123</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3496,7 +3831,7 @@
         <v>107</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <v>145.21</v>
@@ -3511,7 +3846,7 @@
         <v>123</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3519,7 +3854,7 @@
         <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C73">
         <v>145.21</v>
@@ -3528,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3536,7 +3871,7 @@
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C74">
         <v>145.22999999999999</v>
@@ -3551,7 +3886,7 @@
         <v>100</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3559,7 +3894,7 @@
         <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C75">
         <v>145.22999999999999</v>
@@ -3574,7 +3909,7 @@
         <v>131.80000000000001</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3582,7 +3917,7 @@
         <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C76">
         <v>145.25</v>
@@ -3597,7 +3932,7 @@
         <v>123</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3605,7 +3940,7 @@
         <v>112</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C77">
         <v>145.25</v>
@@ -3614,7 +3949,7 @@
         <v>7</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3622,7 +3957,7 @@
         <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C78">
         <v>145.27000000000001</v>
@@ -3637,7 +3972,7 @@
         <v>100</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3645,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <v>145.27000000000001</v>
@@ -3660,7 +3995,7 @@
         <v>103.5</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3668,7 +4003,7 @@
         <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>145.29</v>
@@ -3683,7 +4018,7 @@
         <v>123</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3691,7 +4026,7 @@
         <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C81">
         <v>145.29</v>
@@ -3706,7 +4041,7 @@
         <v>131.80000000000001</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3714,7 +4049,7 @@
         <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <v>145.31</v>
@@ -3729,7 +4064,7 @@
         <v>103.5</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3737,7 +4072,7 @@
         <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <v>145.31</v>
@@ -3752,7 +4087,7 @@
         <v>88.5</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3760,7 +4095,7 @@
         <v>119</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C84">
         <v>145.33000000000001</v>
@@ -3775,7 +4110,7 @@
         <v>100</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -3783,7 +4118,7 @@
         <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <v>145.35</v>
@@ -3798,7 +4133,7 @@
         <v>123</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -3806,7 +4141,7 @@
         <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C86">
         <v>145.35</v>
@@ -3821,7 +4156,7 @@
         <v>100</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -3829,7 +4164,7 @@
         <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C87">
         <v>145.35</v>
@@ -3838,7 +4173,7 @@
         <v>7</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -3846,7 +4181,7 @@
         <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C88">
         <v>145.38999999999999</v>
@@ -3861,7 +4196,7 @@
         <v>100</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -3869,7 +4204,7 @@
         <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C89">
         <v>145.41</v>
@@ -3884,7 +4219,7 @@
         <v>123</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -3892,7 +4227,7 @@
         <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C90">
         <v>145.41</v>
@@ -3907,7 +4242,7 @@
         <v>88.5</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -3915,7 +4250,7 @@
         <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C91">
         <v>145.43</v>
@@ -3930,7 +4265,7 @@
         <v>123</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -3938,7 +4273,7 @@
         <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C92">
         <v>145.43</v>
@@ -3953,7 +4288,7 @@
         <v>88.5</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -3961,7 +4296,7 @@
         <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>145.44999999999999</v>
@@ -3976,7 +4311,7 @@
         <v>100</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -3984,7 +4319,7 @@
         <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <v>145.44999999999999</v>
@@ -3999,7 +4334,7 @@
         <v>100</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -4007,7 +4342,7 @@
         <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <v>145.47</v>
@@ -4016,7 +4351,7 @@
         <v>7</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -4024,7 +4359,7 @@
         <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C96">
         <v>145.47</v>
@@ -4039,7 +4374,7 @@
         <v>123</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -4047,7 +4382,7 @@
         <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C97">
         <v>145.47</v>
@@ -4062,7 +4397,7 @@
         <v>100</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -4070,7 +4405,7 @@
         <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C98">
         <v>145.49</v>
@@ -4085,7 +4420,7 @@
         <v>136.5</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -4093,7 +4428,7 @@
         <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C99">
         <v>145.49</v>
@@ -4108,7 +4443,7 @@
         <v>123</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -4116,7 +4451,7 @@
         <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C100">
         <v>145.49</v>
@@ -4131,7 +4466,7 @@
         <v>100</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -4139,7 +4474,7 @@
         <v>136</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101">
         <v>145.49</v>
@@ -4154,7 +4489,7 @@
         <v>136.5</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -4162,7 +4497,7 @@
         <v>137</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C102">
         <v>146.61000000000001</v>
@@ -4177,7 +4512,7 @@
         <v>88.5</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -4185,7 +4520,7 @@
         <v>138</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C103">
         <v>146.62</v>
@@ -4194,7 +4529,7 @@
         <v>7</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -4202,7 +4537,7 @@
         <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C104">
         <v>146.63999999999999</v>
@@ -4211,7 +4546,7 @@
         <v>7</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -4219,7 +4554,7 @@
         <v>140</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C105">
         <v>146.63999999999999</v>
@@ -4234,7 +4569,7 @@
         <v>100</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -4242,7 +4577,7 @@
         <v>141</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C106">
         <v>146.63999999999999</v>
@@ -4257,7 +4592,7 @@
         <v>100</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -4265,7 +4600,7 @@
         <v>142</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C107">
         <v>146.66</v>
@@ -4280,7 +4615,7 @@
         <v>100</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -4288,7 +4623,7 @@
         <v>143</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C108">
         <v>146.68</v>
@@ -4303,7 +4638,7 @@
         <v>123</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -4311,7 +4646,7 @@
         <v>144</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C109">
         <v>146.69999999999999</v>
@@ -4326,7 +4661,7 @@
         <v>100</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -4334,7 +4669,7 @@
         <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C110">
         <v>146.69999999999999</v>
@@ -4343,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -4351,7 +4686,7 @@
         <v>146</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C111">
         <v>146.72</v>
@@ -4366,7 +4701,7 @@
         <v>100</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -4374,7 +4709,7 @@
         <v>147</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C112">
         <v>146.72</v>
@@ -4389,7 +4724,7 @@
         <v>100</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4397,7 +4732,7 @@
         <v>148</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C113">
         <v>146.72</v>
@@ -4412,7 +4747,7 @@
         <v>100</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -4420,7 +4755,7 @@
         <v>149</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C114">
         <v>146.72</v>
@@ -4435,7 +4770,7 @@
         <v>103.5</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -4443,7 +4778,7 @@
         <v>150</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C115">
         <v>146.74</v>
@@ -4458,7 +4793,7 @@
         <v>100</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -4466,7 +4801,7 @@
         <v>151</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C116">
         <v>146.74</v>
@@ -4481,7 +4816,7 @@
         <v>114.8</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -4489,7 +4824,7 @@
         <v>152</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C117">
         <v>146.74</v>
@@ -4504,7 +4839,7 @@
         <v>100</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4512,7 +4847,7 @@
         <v>153</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C118">
         <v>146.76</v>
@@ -4527,7 +4862,7 @@
         <v>123</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -4535,7 +4870,7 @@
         <v>154</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C119">
         <v>146.76</v>
@@ -4550,7 +4885,7 @@
         <v>88.5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -4558,7 +4893,7 @@
         <v>155</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C120">
         <v>146.76</v>
@@ -4567,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -4575,7 +4910,7 @@
         <v>156</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C121">
         <v>146.78</v>
@@ -4590,7 +4925,7 @@
         <v>100</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -4598,7 +4933,7 @@
         <v>157</v>
       </c>
       <c r="B122" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C122">
         <v>146.80000000000001</v>
@@ -4613,7 +4948,7 @@
         <v>100</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -4621,7 +4956,7 @@
         <v>158</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C123">
         <v>146.80000000000001</v>
@@ -4636,7 +4971,7 @@
         <v>100</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -4644,7 +4979,7 @@
         <v>159</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C124">
         <v>146.82</v>
@@ -4659,7 +4994,7 @@
         <v>123</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -4667,7 +5002,7 @@
         <v>160</v>
       </c>
       <c r="B125" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C125">
         <v>146.82</v>
@@ -4682,7 +5017,7 @@
         <v>100</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -4690,7 +5025,7 @@
         <v>161</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C126">
         <v>146.84</v>
@@ -4705,7 +5040,7 @@
         <v>100</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -4713,7 +5048,7 @@
         <v>162</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C127">
         <v>146.84</v>
@@ -4722,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -4730,7 +5065,7 @@
         <v>163</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C128">
         <v>146.86000000000001</v>
@@ -4745,7 +5080,7 @@
         <v>100</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -4753,7 +5088,7 @@
         <v>164</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C129">
         <v>146.88</v>
@@ -4768,7 +5103,7 @@
         <v>123</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -4776,7 +5111,7 @@
         <v>165</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C130">
         <v>146.88</v>
@@ -4791,7 +5126,7 @@
         <v>88.5</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -4799,7 +5134,7 @@
         <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C131">
         <v>146.9</v>
@@ -4814,7 +5149,7 @@
         <v>88.5</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -4822,7 +5157,7 @@
         <v>167</v>
       </c>
       <c r="B132" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C132">
         <v>146.9</v>
@@ -4837,7 +5172,7 @@
         <v>123</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4845,7 +5180,7 @@
         <v>168</v>
       </c>
       <c r="B133" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C133">
         <v>146.91</v>
@@ -4860,7 +5195,7 @@
         <v>100</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -4868,7 +5203,7 @@
         <v>169</v>
       </c>
       <c r="B134" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C134">
         <v>146.91999999999999</v>
@@ -4883,7 +5218,7 @@
         <v>123</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -4891,7 +5226,7 @@
         <v>170</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C135">
         <v>146.91999999999999</v>
@@ -4906,7 +5241,7 @@
         <v>136.5</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4914,7 +5249,7 @@
         <v>171</v>
       </c>
       <c r="B136" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C136">
         <v>146.94</v>
@@ -4929,7 +5264,7 @@
         <v>100</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -4937,7 +5272,7 @@
         <v>172</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C137">
         <v>146.94</v>
@@ -4952,7 +5287,7 @@
         <v>88.5</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -4960,7 +5295,7 @@
         <v>173</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C138">
         <v>146.96</v>
@@ -4975,7 +5310,7 @@
         <v>100</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -4983,7 +5318,7 @@
         <v>174</v>
       </c>
       <c r="B139" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C139">
         <v>146.96</v>
@@ -4998,7 +5333,7 @@
         <v>100</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -5006,7 +5341,7 @@
         <v>175</v>
       </c>
       <c r="B140" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C140">
         <v>146.97999999999999</v>
@@ -5021,7 +5356,7 @@
         <v>100</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -5029,7 +5364,7 @@
         <v>176</v>
       </c>
       <c r="B141" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C141">
         <v>146.97999999999999</v>
@@ -5038,7 +5373,7 @@
         <v>7</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -5046,13 +5381,13 @@
         <v>177</v>
       </c>
       <c r="B142" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C142">
         <v>147.02000000000001</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E142">
         <v>0.6</v>
@@ -5061,7 +5396,7 @@
         <v>100</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -5069,13 +5404,13 @@
         <v>178</v>
       </c>
       <c r="B143" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C143">
         <v>147.02000000000001</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E143">
         <v>0.6</v>
@@ -5084,7 +5419,7 @@
         <v>100</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -5092,13 +5427,13 @@
         <v>179</v>
       </c>
       <c r="B144" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C144">
         <v>147.04</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E144">
         <v>0.6</v>
@@ -5107,7 +5442,7 @@
         <v>123</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -5115,13 +5450,13 @@
         <v>180</v>
       </c>
       <c r="B145" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C145">
         <v>147.04</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E145">
         <v>0.6</v>
@@ -5130,7 +5465,7 @@
         <v>136.5</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -5138,13 +5473,13 @@
         <v>181</v>
       </c>
       <c r="B146" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C146">
         <v>147.06</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E146">
         <v>0.6</v>
@@ -5153,7 +5488,7 @@
         <v>88.5</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -5161,16 +5496,16 @@
         <v>182</v>
       </c>
       <c r="B147" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C147">
         <v>147.06</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -5178,16 +5513,16 @@
         <v>183</v>
       </c>
       <c r="B148" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C148">
         <v>147.06</v>
       </c>
       <c r="D148" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -5195,13 +5530,13 @@
         <v>184</v>
       </c>
       <c r="B149" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C149">
         <v>147.08000000000001</v>
       </c>
       <c r="D149" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <v>0.6</v>
@@ -5210,7 +5545,7 @@
         <v>77</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -5218,13 +5553,13 @@
         <v>185</v>
       </c>
       <c r="B150" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C150">
         <v>147.08000000000001</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E150">
         <v>0.6</v>
@@ -5233,7 +5568,7 @@
         <v>136.5</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -5241,13 +5576,13 @@
         <v>186</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C151">
         <v>147.08000000000001</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>0.6</v>
@@ -5256,7 +5591,7 @@
         <v>88.5</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -5264,13 +5599,13 @@
         <v>187</v>
       </c>
       <c r="B152" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C152">
         <v>147.1</v>
       </c>
       <c r="D152" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E152">
         <v>0.6</v>
@@ -5279,7 +5614,7 @@
         <v>100</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -5287,13 +5622,13 @@
         <v>188</v>
       </c>
       <c r="B153" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C153">
         <v>147.1</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E153">
         <v>0.6</v>
@@ -5302,7 +5637,7 @@
         <v>123</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -5310,13 +5645,13 @@
         <v>189</v>
       </c>
       <c r="B154" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C154">
         <v>147.1</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E154">
         <v>0.6</v>
@@ -5325,7 +5660,7 @@
         <v>136.5</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -5333,13 +5668,13 @@
         <v>190</v>
       </c>
       <c r="B155" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C155">
         <v>147.12</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E155">
         <v>0.6</v>
@@ -5348,7 +5683,7 @@
         <v>100</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -5356,13 +5691,13 @@
         <v>191</v>
       </c>
       <c r="B156" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C156">
         <v>147.13999999999999</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E156">
         <v>0.6</v>
@@ -5371,7 +5706,7 @@
         <v>88.5</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -5379,13 +5714,13 @@
         <v>192</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C157">
         <v>147.13999999999999</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <v>0.6</v>
@@ -5394,7 +5729,7 @@
         <v>127.3</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5402,13 +5737,13 @@
         <v>193</v>
       </c>
       <c r="B158" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C158">
         <v>147.16</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E158">
         <v>0.6</v>
@@ -5417,7 +5752,7 @@
         <v>136.5</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5425,13 +5760,13 @@
         <v>194</v>
       </c>
       <c r="B159" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C159">
         <v>147.16</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E159">
         <v>0.6</v>
@@ -5440,7 +5775,7 @@
         <v>100</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5448,13 +5783,13 @@
         <v>195</v>
       </c>
       <c r="B160" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C160">
         <v>147.16</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E160">
         <v>0.6</v>
@@ -5463,7 +5798,7 @@
         <v>127.3</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -5471,16 +5806,16 @@
         <v>196</v>
       </c>
       <c r="B161" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C161">
         <v>147.18</v>
       </c>
       <c r="D161" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -5488,13 +5823,13 @@
         <v>197</v>
       </c>
       <c r="B162" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C162">
         <v>147.18</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E162">
         <v>0.6</v>
@@ -5503,7 +5838,7 @@
         <v>100</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -5511,13 +5846,13 @@
         <v>198</v>
       </c>
       <c r="B163" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C163">
         <v>147.19999999999999</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E163">
         <v>0.6</v>
@@ -5526,7 +5861,7 @@
         <v>103.5</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -5534,13 +5869,13 @@
         <v>199</v>
       </c>
       <c r="B164" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C164">
         <v>147.19999999999999</v>
       </c>
       <c r="D164" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E164">
         <v>0.6</v>
@@ -5549,7 +5884,7 @@
         <v>88.5</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -5557,13 +5892,13 @@
         <v>200</v>
       </c>
       <c r="B165" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C165">
         <v>147.19999999999999</v>
       </c>
       <c r="D165" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E165">
         <v>0.6</v>
@@ -5572,7 +5907,7 @@
         <v>88.5</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -5580,13 +5915,13 @@
         <v>201</v>
       </c>
       <c r="B166" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C166">
         <v>147.19999999999999</v>
       </c>
       <c r="D166" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E166">
         <v>0.6</v>
@@ -5595,7 +5930,7 @@
         <v>100</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -5603,16 +5938,16 @@
         <v>202</v>
       </c>
       <c r="B167" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C167">
         <v>147.22</v>
       </c>
       <c r="D167" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -5620,13 +5955,13 @@
         <v>203</v>
       </c>
       <c r="B168" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C168">
         <v>147.22</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E168">
         <v>0.6</v>
@@ -5635,7 +5970,7 @@
         <v>123</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -5643,13 +5978,13 @@
         <v>204</v>
       </c>
       <c r="B169" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C169">
         <v>147.24</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E169">
         <v>0.6</v>
@@ -5658,7 +5993,7 @@
         <v>136.5</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -5666,13 +6001,13 @@
         <v>205</v>
       </c>
       <c r="B170" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C170">
         <v>147.24</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E170">
         <v>0.6</v>
@@ -5681,7 +6016,7 @@
         <v>79.7</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -5689,16 +6024,16 @@
         <v>206</v>
       </c>
       <c r="B171" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C171">
         <v>147.26</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -5706,16 +6041,16 @@
         <v>207</v>
       </c>
       <c r="B172" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C172">
         <v>147.26</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -5723,13 +6058,13 @@
         <v>208</v>
       </c>
       <c r="B173" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C173">
         <v>147.26</v>
       </c>
       <c r="D173" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E173">
         <v>0.6</v>
@@ -5738,7 +6073,7 @@
         <v>103.5</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -5746,16 +6081,16 @@
         <v>209</v>
       </c>
       <c r="B174" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C174">
         <v>147.26</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -5763,13 +6098,13 @@
         <v>210</v>
       </c>
       <c r="B175" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C175">
         <v>147.28</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E175">
         <v>0.6</v>
@@ -5778,7 +6113,7 @@
         <v>107.2</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -5786,13 +6121,13 @@
         <v>211</v>
       </c>
       <c r="B176" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C176">
         <v>147.28</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E176">
         <v>0.6</v>
@@ -5801,7 +6136,7 @@
         <v>141.30000000000001</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5809,13 +6144,13 @@
         <v>212</v>
       </c>
       <c r="B177" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C177">
         <v>147.30000000000001</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E177">
         <v>0.6</v>
@@ -5824,7 +6159,7 @@
         <v>100</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5832,13 +6167,13 @@
         <v>213</v>
       </c>
       <c r="B178" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C178">
         <v>147.32</v>
       </c>
       <c r="D178" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E178">
         <v>0.6</v>
@@ -5847,7 +6182,7 @@
         <v>88.5</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5855,13 +6190,13 @@
         <v>214</v>
       </c>
       <c r="B179" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C179">
         <v>147.32</v>
       </c>
       <c r="D179" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E179">
         <v>0.6</v>
@@ -5870,7 +6205,7 @@
         <v>88.5</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5878,13 +6213,13 @@
         <v>215</v>
       </c>
       <c r="B180" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C180">
         <v>147.34</v>
       </c>
       <c r="D180" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E180">
         <v>0.6</v>
@@ -5893,7 +6228,7 @@
         <v>100</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -5901,13 +6236,13 @@
         <v>216</v>
       </c>
       <c r="B181" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C181">
         <v>147.34</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E181">
         <v>0.6</v>
@@ -5916,7 +6251,7 @@
         <v>136.5</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -5924,13 +6259,13 @@
         <v>217</v>
       </c>
       <c r="B182" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C182">
         <v>147.36000000000001</v>
       </c>
       <c r="D182" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E182">
         <v>0.6</v>
@@ -5939,7 +6274,7 @@
         <v>100</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5947,16 +6282,16 @@
         <v>218</v>
       </c>
       <c r="B183" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C183">
         <v>147.36000000000001</v>
       </c>
       <c r="D183" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -5964,13 +6299,13 @@
         <v>219</v>
       </c>
       <c r="B184" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C184">
         <v>147.38</v>
       </c>
       <c r="D184" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E184">
         <v>0.6</v>
@@ -5979,7 +6314,7 @@
         <v>203.5</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -5987,16 +6322,16 @@
         <v>220</v>
       </c>
       <c r="B185" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C185">
         <v>147.38</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -6004,13 +6339,13 @@
         <v>221</v>
       </c>
       <c r="B186" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C186">
         <v>147.38</v>
       </c>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E186">
         <v>0.6</v>
@@ -6019,7 +6354,7 @@
         <v>100</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -6027,7 +6362,7 @@
         <v>222</v>
       </c>
       <c r="B187" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C187">
         <v>433.6</v>
@@ -6042,7 +6377,7 @@
         <v>100</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -6050,7 +6385,7 @@
         <v>223</v>
       </c>
       <c r="B188" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C188">
         <v>447</v>
@@ -6065,7 +6400,7 @@
         <v>88.5</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -6073,16 +6408,16 @@
         <v>225</v>
       </c>
       <c r="B189" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C189">
         <v>447</v>
       </c>
       <c r="D189" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -6090,7 +6425,7 @@
         <v>226</v>
       </c>
       <c r="B190" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C190">
         <v>447.02499999999998</v>
@@ -6105,7 +6440,7 @@
         <v>100</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -6113,7 +6448,7 @@
         <v>227</v>
       </c>
       <c r="B191" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C191">
         <v>447.05</v>
@@ -6128,7 +6463,7 @@
         <v>114.8</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -6136,7 +6471,7 @@
         <v>230</v>
       </c>
       <c r="B192" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C192">
         <v>447.07499999999999</v>
@@ -6151,7 +6486,7 @@
         <v>131.80000000000001</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -6159,7 +6494,7 @@
         <v>231</v>
       </c>
       <c r="B193" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C193">
         <v>447.1</v>
@@ -6174,7 +6509,7 @@
         <v>100</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -6182,7 +6517,7 @@
         <v>232</v>
       </c>
       <c r="B194" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C194">
         <v>447.1</v>
@@ -6197,7 +6532,7 @@
         <v>107.2</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -6205,7 +6540,7 @@
         <v>233</v>
       </c>
       <c r="B195" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C195">
         <v>447.125</v>
@@ -6220,7 +6555,7 @@
         <v>100</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -6228,7 +6563,7 @@
         <v>234</v>
       </c>
       <c r="B196" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C196">
         <v>447.125</v>
@@ -6243,7 +6578,7 @@
         <v>100</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -6251,7 +6586,7 @@
         <v>236</v>
       </c>
       <c r="B197" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C197">
         <v>447.15</v>
@@ -6266,7 +6601,7 @@
         <v>114.8</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -6274,7 +6609,7 @@
         <v>237</v>
       </c>
       <c r="B198" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C198">
         <v>447.17500000000001</v>
@@ -6283,7 +6618,7 @@
         <v>7</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -6291,7 +6626,7 @@
         <v>238</v>
       </c>
       <c r="B199" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C199">
         <v>447.2</v>
@@ -6306,7 +6641,7 @@
         <v>127.3</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -6314,7 +6649,7 @@
         <v>239</v>
       </c>
       <c r="B200" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C200">
         <v>447.25</v>
@@ -6329,7 +6664,7 @@
         <v>100</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -6337,7 +6672,7 @@
         <v>240</v>
       </c>
       <c r="B201" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C201">
         <v>447.25</v>
@@ -6352,7 +6687,7 @@
         <v>100</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -6360,7 +6695,7 @@
         <v>241</v>
       </c>
       <c r="B202" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C202">
         <v>447.27499999999998</v>
@@ -6375,7 +6710,7 @@
         <v>100</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -6383,7 +6718,7 @@
         <v>242</v>
       </c>
       <c r="B203" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C203">
         <v>447.3</v>
@@ -6398,7 +6733,7 @@
         <v>100</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -6406,7 +6741,7 @@
         <v>243</v>
       </c>
       <c r="B204" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C204">
         <v>447.32499999999999</v>
@@ -6415,7 +6750,7 @@
         <v>7</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -6423,7 +6758,7 @@
         <v>244</v>
       </c>
       <c r="B205" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C205">
         <v>447.32499999999999</v>
@@ -6438,7 +6773,7 @@
         <v>114.8</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -6446,7 +6781,7 @@
         <v>245</v>
       </c>
       <c r="B206" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C206">
         <v>447.35</v>
@@ -6455,7 +6790,7 @@
         <v>7</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -6463,7 +6798,7 @@
         <v>246</v>
       </c>
       <c r="B207" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C207">
         <v>447.35</v>
@@ -6478,7 +6813,7 @@
         <v>88.5</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -6486,7 +6821,7 @@
         <v>247</v>
       </c>
       <c r="B208" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C208">
         <v>447.4</v>
@@ -6495,7 +6830,7 @@
         <v>7</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -6503,7 +6838,7 @@
         <v>248</v>
       </c>
       <c r="B209" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C209">
         <v>447.4</v>
@@ -6518,7 +6853,7 @@
         <v>100</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -6526,13 +6861,13 @@
         <v>249</v>
       </c>
       <c r="B210" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C210">
         <v>447.42500000000001</v>
       </c>
       <c r="D210" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E210">
         <v>5</v>
@@ -6541,7 +6876,7 @@
         <v>192.8</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -6549,7 +6884,7 @@
         <v>250</v>
       </c>
       <c r="B211" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C211">
         <v>447.42500000000001</v>
@@ -6558,7 +6893,7 @@
         <v>7</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -6566,7 +6901,7 @@
         <v>251</v>
       </c>
       <c r="B212" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C212">
         <v>447.45</v>
@@ -6581,7 +6916,7 @@
         <v>114.8</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -6589,7 +6924,7 @@
         <v>252</v>
       </c>
       <c r="B213" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C213">
         <v>447.47500000000002</v>
@@ -6604,7 +6939,7 @@
         <v>186.2</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -6612,7 +6947,7 @@
         <v>253</v>
       </c>
       <c r="B214" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C214">
         <v>447.5</v>
@@ -6621,7 +6956,7 @@
         <v>7</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -6629,7 +6964,7 @@
         <v>254</v>
       </c>
       <c r="B215" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C215">
         <v>447.52499999999998</v>
@@ -6644,7 +6979,7 @@
         <v>107.2</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -6652,16 +6987,16 @@
         <v>255</v>
       </c>
       <c r="B216" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C216">
         <v>447.57499999999999</v>
       </c>
       <c r="D216" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -6669,7 +7004,7 @@
         <v>256</v>
       </c>
       <c r="B217" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C217">
         <v>447.57499999999999</v>
@@ -6684,7 +7019,7 @@
         <v>114.8</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -6692,7 +7027,7 @@
         <v>257</v>
       </c>
       <c r="B218" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C218">
         <v>447.6</v>
@@ -6701,7 +7036,7 @@
         <v>7</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -6709,7 +7044,7 @@
         <v>258</v>
       </c>
       <c r="B219" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C219">
         <v>447.6</v>
@@ -6724,7 +7059,7 @@
         <v>162.19999999999999</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -6732,7 +7067,7 @@
         <v>259</v>
       </c>
       <c r="B220" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C220">
         <v>447.625</v>
@@ -6747,7 +7082,7 @@
         <v>100</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -6755,7 +7090,7 @@
         <v>260</v>
       </c>
       <c r="B221" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C221">
         <v>447.67500000000001</v>
@@ -6770,7 +7105,7 @@
         <v>100</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -6778,7 +7113,7 @@
         <v>261</v>
       </c>
       <c r="B222" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C222">
         <v>447.7</v>
@@ -6793,7 +7128,7 @@
         <v>123</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -6801,7 +7136,7 @@
         <v>262</v>
       </c>
       <c r="B223" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C223">
         <v>447.7</v>
@@ -6816,7 +7151,7 @@
         <v>100</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -6824,7 +7159,7 @@
         <v>263</v>
       </c>
       <c r="B224" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C224">
         <v>447.72500000000002</v>
@@ -6839,7 +7174,7 @@
         <v>167.9</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -6847,7 +7182,7 @@
         <v>264</v>
       </c>
       <c r="B225" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C225">
         <v>447.75</v>
@@ -6862,7 +7197,7 @@
         <v>100</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -6870,7 +7205,7 @@
         <v>265</v>
       </c>
       <c r="B226" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C226">
         <v>447.77499999999998</v>
@@ -6885,7 +7220,7 @@
         <v>123</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -6893,7 +7228,7 @@
         <v>266</v>
       </c>
       <c r="B227" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C227">
         <v>447.85</v>
@@ -6908,7 +7243,7 @@
         <v>131.80000000000001</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -6916,7 +7251,7 @@
         <v>267</v>
       </c>
       <c r="B228" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C228">
         <v>447.875</v>
@@ -6925,7 +7260,7 @@
         <v>7</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -6933,7 +7268,7 @@
         <v>268</v>
       </c>
       <c r="B229" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C229">
         <v>447.875</v>
@@ -6948,7 +7283,7 @@
         <v>100</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -6956,7 +7291,7 @@
         <v>277</v>
       </c>
       <c r="B230" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C230">
         <v>448</v>
@@ -6971,7 +7306,7 @@
         <v>100</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -6979,7 +7314,7 @@
         <v>278</v>
       </c>
       <c r="B231" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C231">
         <v>448.02499999999998</v>
@@ -6994,7 +7329,7 @@
         <v>123</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -7002,7 +7337,7 @@
         <v>279</v>
       </c>
       <c r="B232" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C232">
         <v>448.02499999999998</v>
@@ -7017,7 +7352,7 @@
         <v>100</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -7025,7 +7360,7 @@
         <v>280</v>
       </c>
       <c r="B233" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C233">
         <v>448.05</v>
@@ -7040,7 +7375,7 @@
         <v>100</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -7048,7 +7383,7 @@
         <v>284</v>
       </c>
       <c r="B234" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C234">
         <v>448.1</v>
@@ -7057,7 +7392,7 @@
         <v>7</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -7065,7 +7400,7 @@
         <v>285</v>
       </c>
       <c r="B235" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C235">
         <v>448.1</v>
@@ -7080,7 +7415,7 @@
         <v>114.8</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -7088,7 +7423,7 @@
         <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C236">
         <v>448.125</v>
@@ -7103,7 +7438,7 @@
         <v>100</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -7111,7 +7446,7 @@
         <v>287</v>
       </c>
       <c r="B237" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C237">
         <v>448.15</v>
@@ -7126,7 +7461,7 @@
         <v>127.3</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -7134,7 +7469,7 @@
         <v>288</v>
       </c>
       <c r="B238" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C238">
         <v>448.17500000000001</v>
@@ -7149,7 +7484,7 @@
         <v>203.5</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -7157,7 +7492,7 @@
         <v>289</v>
       </c>
       <c r="B239" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C239">
         <v>448.2</v>
@@ -7172,7 +7507,7 @@
         <v>100</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -7180,7 +7515,7 @@
         <v>290</v>
       </c>
       <c r="B240" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C240">
         <v>448.22500000000002</v>
@@ -7195,7 +7530,7 @@
         <v>146.19999999999999</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -7203,7 +7538,7 @@
         <v>291</v>
       </c>
       <c r="B241" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C241">
         <v>448.25</v>
@@ -7218,7 +7553,7 @@
         <v>100</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -7226,7 +7561,7 @@
         <v>292</v>
       </c>
       <c r="B242" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C242">
         <v>448.27499999999998</v>
@@ -7241,7 +7576,7 @@
         <v>107.2</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -7249,7 +7584,7 @@
         <v>293</v>
       </c>
       <c r="B243" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C243">
         <v>448.27499999999998</v>
@@ -7264,7 +7599,7 @@
         <v>107.2</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -7272,7 +7607,7 @@
         <v>294</v>
       </c>
       <c r="B244" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C244">
         <v>448.3</v>
@@ -7287,7 +7622,7 @@
         <v>123</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -7295,7 +7630,7 @@
         <v>295</v>
       </c>
       <c r="B245" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C245">
         <v>448.3</v>
@@ -7310,7 +7645,7 @@
         <v>88.5</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -7318,7 +7653,7 @@
         <v>296</v>
       </c>
       <c r="B246" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C246">
         <v>448.3</v>
@@ -7327,7 +7662,7 @@
         <v>7</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -7335,7 +7670,7 @@
         <v>297</v>
       </c>
       <c r="B247" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C247">
         <v>448.32499999999999</v>
@@ -7350,7 +7685,7 @@
         <v>103.5</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -7358,7 +7693,7 @@
         <v>298</v>
       </c>
       <c r="B248" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C248">
         <v>448.35</v>
@@ -7367,7 +7702,7 @@
         <v>7</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -7375,7 +7710,7 @@
         <v>299</v>
       </c>
       <c r="B249" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C249">
         <v>448.375</v>
@@ -7390,7 +7725,7 @@
         <v>100</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -7398,7 +7733,7 @@
         <v>300</v>
       </c>
       <c r="B250" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C250">
         <v>448.4</v>
@@ -7413,7 +7748,7 @@
         <v>100</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -7421,7 +7756,7 @@
         <v>301</v>
       </c>
       <c r="B251" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C251">
         <v>448.4</v>
@@ -7430,7 +7765,7 @@
         <v>7</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -7438,7 +7773,7 @@
         <v>302</v>
       </c>
       <c r="B252" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C252">
         <v>448.42500000000001</v>
@@ -7453,7 +7788,7 @@
         <v>100</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -7461,7 +7796,7 @@
         <v>303</v>
       </c>
       <c r="B253" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C253">
         <v>448.45</v>
@@ -7476,7 +7811,7 @@
         <v>131.80000000000001</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -7484,7 +7819,7 @@
         <v>304</v>
       </c>
       <c r="B254" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C254">
         <v>448.45</v>
@@ -7499,7 +7834,7 @@
         <v>100</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -7507,7 +7842,7 @@
         <v>305</v>
       </c>
       <c r="B255" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C255">
         <v>448.47500000000002</v>
@@ -7516,7 +7851,7 @@
         <v>7</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -7524,7 +7859,7 @@
         <v>306</v>
       </c>
       <c r="B256" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C256">
         <v>448.5</v>
@@ -7533,7 +7868,7 @@
         <v>7</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -7541,7 +7876,7 @@
         <v>307</v>
       </c>
       <c r="B257" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C257">
         <v>448.52499999999998</v>
@@ -7556,7 +7891,7 @@
         <v>100</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -7564,7 +7899,7 @@
         <v>308</v>
       </c>
       <c r="B258" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C258">
         <v>448.55</v>
@@ -7579,7 +7914,7 @@
         <v>88.5</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -7587,7 +7922,7 @@
         <v>309</v>
       </c>
       <c r="B259" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C259">
         <v>448.55</v>
@@ -7602,7 +7937,7 @@
         <v>100</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -7610,7 +7945,7 @@
         <v>310</v>
       </c>
       <c r="B260" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C260">
         <v>448.57499999999999</v>
@@ -7625,7 +7960,7 @@
         <v>100</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -7633,7 +7968,7 @@
         <v>311</v>
       </c>
       <c r="B261" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C261">
         <v>448.6</v>
@@ -7648,7 +7983,7 @@
         <v>123</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -7656,7 +7991,7 @@
         <v>312</v>
       </c>
       <c r="B262" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C262">
         <v>448.6</v>
@@ -7671,7 +8006,7 @@
         <v>100</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -7679,7 +8014,7 @@
         <v>313</v>
       </c>
       <c r="B263" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C263">
         <v>448.625</v>
@@ -7688,7 +8023,7 @@
         <v>7</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -7696,7 +8031,7 @@
         <v>314</v>
       </c>
       <c r="B264" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C264">
         <v>448.65</v>
@@ -7705,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -7713,7 +8048,7 @@
         <v>315</v>
       </c>
       <c r="B265" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C265">
         <v>448.65</v>
@@ -7722,7 +8057,7 @@
         <v>7</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -7730,7 +8065,7 @@
         <v>316</v>
       </c>
       <c r="B266" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C266">
         <v>448.67500000000001</v>
@@ -7739,7 +8074,7 @@
         <v>7</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -7747,7 +8082,7 @@
         <v>317</v>
       </c>
       <c r="B267" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C267">
         <v>448.7</v>
@@ -7762,7 +8097,7 @@
         <v>114.8</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -7770,7 +8105,7 @@
         <v>319</v>
       </c>
       <c r="B268" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C268">
         <v>448.72500000000002</v>
@@ -7779,7 +8114,7 @@
         <v>7</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -7787,7 +8122,7 @@
         <v>320</v>
       </c>
       <c r="B269" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C269">
         <v>448.75</v>
@@ -7802,7 +8137,7 @@
         <v>100</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -7810,7 +8145,7 @@
         <v>321</v>
       </c>
       <c r="B270" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C270">
         <v>448.77499999999998</v>
@@ -7825,7 +8160,7 @@
         <v>123</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -7833,7 +8168,7 @@
         <v>322</v>
       </c>
       <c r="B271" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C271">
         <v>448.8</v>
@@ -7848,7 +8183,7 @@
         <v>88.5</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -7856,7 +8191,7 @@
         <v>323</v>
       </c>
       <c r="B272" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C272">
         <v>448.8</v>
@@ -7871,7 +8206,7 @@
         <v>100</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -7879,7 +8214,7 @@
         <v>324</v>
       </c>
       <c r="B273" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C273">
         <v>448.82499999999999</v>
@@ -7894,7 +8229,7 @@
         <v>123</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -7902,7 +8237,7 @@
         <v>325</v>
       </c>
       <c r="B274" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C274">
         <v>448.85</v>
@@ -7911,7 +8246,7 @@
         <v>7</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -7919,7 +8254,7 @@
         <v>326</v>
       </c>
       <c r="B275" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C275">
         <v>448.875</v>
@@ -7928,7 +8263,7 @@
         <v>7</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -7936,7 +8271,7 @@
         <v>327</v>
       </c>
       <c r="B276" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C276">
         <v>448.9</v>
@@ -7945,7 +8280,7 @@
         <v>7</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -7953,7 +8288,7 @@
         <v>328</v>
       </c>
       <c r="B277" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C277">
         <v>448.92500000000001</v>
@@ -7968,7 +8303,7 @@
         <v>100</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -7976,7 +8311,7 @@
         <v>329</v>
       </c>
       <c r="B278" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C278">
         <v>448.95</v>
@@ -7985,7 +8320,7 @@
         <v>7</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -7993,7 +8328,7 @@
         <v>330</v>
       </c>
       <c r="B279" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C279">
         <v>448.97500000000002</v>
@@ -8002,7 +8337,7 @@
         <v>7</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
@@ -8010,7 +8345,7 @@
         <v>331</v>
       </c>
       <c r="B280" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C280">
         <v>448.97500000000002</v>
@@ -8019,7 +8354,7 @@
         <v>7</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -8027,7 +8362,7 @@
         <v>332</v>
       </c>
       <c r="B281" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C281">
         <v>449</v>
@@ -8036,7 +8371,7 @@
         <v>7</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -8044,7 +8379,7 @@
         <v>333</v>
       </c>
       <c r="B282" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C282">
         <v>449.05</v>
@@ -8059,7 +8394,7 @@
         <v>88.5</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -8067,7 +8402,7 @@
         <v>334</v>
       </c>
       <c r="B283" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C283">
         <v>449.07499999999999</v>
@@ -8082,7 +8417,7 @@
         <v>123</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -8090,7 +8425,7 @@
         <v>335</v>
       </c>
       <c r="B284" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C284">
         <v>449.07499999999999</v>
@@ -8105,7 +8440,7 @@
         <v>167.9</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -8113,7 +8448,7 @@
         <v>336</v>
       </c>
       <c r="B285" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C285">
         <v>449.07499999999999</v>
@@ -8128,7 +8463,7 @@
         <v>123</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -8136,7 +8471,7 @@
         <v>337</v>
       </c>
       <c r="B286" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C286">
         <v>449.1</v>
@@ -8151,7 +8486,7 @@
         <v>107.2</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -8159,7 +8494,7 @@
         <v>338</v>
       </c>
       <c r="B287" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C287">
         <v>449.15</v>
@@ -8174,7 +8509,7 @@
         <v>100</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -8182,7 +8517,7 @@
         <v>339</v>
       </c>
       <c r="B288" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C288">
         <v>449.17500000000001</v>
@@ -8197,7 +8532,7 @@
         <v>131.80000000000001</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
@@ -8205,7 +8540,7 @@
         <v>340</v>
       </c>
       <c r="B289" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C289">
         <v>449.22500000000002</v>
@@ -8220,7 +8555,7 @@
         <v>100</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -8228,7 +8563,7 @@
         <v>341</v>
       </c>
       <c r="B290" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C290">
         <v>449.25</v>
@@ -8243,7 +8578,7 @@
         <v>110.9</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -8266,7 +8601,7 @@
         <v>118.8</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -8274,7 +8609,7 @@
         <v>343</v>
       </c>
       <c r="B292" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C292">
         <v>449.25</v>
@@ -8289,7 +8624,7 @@
         <v>100</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -8297,7 +8632,7 @@
         <v>344</v>
       </c>
       <c r="B293" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C293">
         <v>449.25</v>
@@ -8312,7 +8647,7 @@
         <v>103.5</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
@@ -8320,7 +8655,7 @@
         <v>345</v>
       </c>
       <c r="B294" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C294">
         <v>449.25</v>
@@ -8335,7 +8670,7 @@
         <v>131.80000000000001</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -8343,7 +8678,7 @@
         <v>346</v>
       </c>
       <c r="B295" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C295">
         <v>449.27499999999998</v>
@@ -8352,7 +8687,7 @@
         <v>7</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -8360,7 +8695,7 @@
         <v>347</v>
       </c>
       <c r="B296" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C296">
         <v>449.27499999999998</v>
@@ -8375,7 +8710,7 @@
         <v>88.5</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -8383,7 +8718,7 @@
         <v>348</v>
       </c>
       <c r="B297" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C297">
         <v>449.3</v>
@@ -8398,7 +8733,7 @@
         <v>103.5</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -8406,7 +8741,7 @@
         <v>349</v>
       </c>
       <c r="B298" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C298">
         <v>449.3</v>
@@ -8421,7 +8756,7 @@
         <v>88.5</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -8429,7 +8764,7 @@
         <v>350</v>
       </c>
       <c r="B299" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C299">
         <v>449.32499999999999</v>
@@ -8444,7 +8779,7 @@
         <v>156.69999999999999</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -8452,7 +8787,7 @@
         <v>351</v>
       </c>
       <c r="B300" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C300">
         <v>449.32499999999999</v>
@@ -8467,7 +8802,7 @@
         <v>114.8</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -8475,7 +8810,7 @@
         <v>352</v>
       </c>
       <c r="B301" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C301">
         <v>449.32499999999999</v>
@@ -8484,7 +8819,7 @@
         <v>7</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -8492,7 +8827,7 @@
         <v>353</v>
       </c>
       <c r="B302" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C302">
         <v>449.35</v>
@@ -8507,7 +8842,7 @@
         <v>123</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -8515,7 +8850,7 @@
         <v>354</v>
       </c>
       <c r="B303" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C303">
         <v>449.35</v>
@@ -8524,7 +8859,7 @@
         <v>7</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -8532,7 +8867,7 @@
         <v>355</v>
       </c>
       <c r="B304" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C304">
         <v>449.35</v>
@@ -8547,7 +8882,7 @@
         <v>100</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -8555,7 +8890,7 @@
         <v>356</v>
       </c>
       <c r="B305" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C305">
         <v>449.4</v>
@@ -8570,7 +8905,7 @@
         <v>100</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -8578,7 +8913,7 @@
         <v>357</v>
       </c>
       <c r="B306" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C306">
         <v>449.42500000000001</v>
@@ -8593,7 +8928,7 @@
         <v>100</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -8601,7 +8936,7 @@
         <v>358</v>
       </c>
       <c r="B307" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C307">
         <v>449.42500000000001</v>
@@ -8616,7 +8951,7 @@
         <v>203.5</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -8624,7 +8959,7 @@
         <v>359</v>
       </c>
       <c r="B308" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C308">
         <v>449.47500000000002</v>
@@ -8639,7 +8974,7 @@
         <v>100</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -8647,7 +8982,7 @@
         <v>360</v>
       </c>
       <c r="B309" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C309">
         <v>449.5</v>
@@ -8662,7 +8997,7 @@
         <v>100</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -8670,7 +9005,7 @@
         <v>361</v>
       </c>
       <c r="B310" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C310">
         <v>449.5</v>
@@ -8685,7 +9020,7 @@
         <v>100</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -8693,7 +9028,7 @@
         <v>362</v>
       </c>
       <c r="B311" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C311">
         <v>449.52499999999998</v>
@@ -8708,7 +9043,7 @@
         <v>131.80000000000001</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
@@ -8716,7 +9051,7 @@
         <v>363</v>
       </c>
       <c r="B312" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C312">
         <v>449.52499999999998</v>
@@ -8731,7 +9066,7 @@
         <v>100</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -8739,7 +9074,7 @@
         <v>364</v>
       </c>
       <c r="B313" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C313">
         <v>449.55</v>
@@ -8754,7 +9089,7 @@
         <v>100</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
@@ -8762,7 +9097,7 @@
         <v>365</v>
       </c>
       <c r="B314" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C314">
         <v>449.55</v>
@@ -8777,7 +9112,7 @@
         <v>123</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
@@ -8785,7 +9120,7 @@
         <v>368</v>
       </c>
       <c r="B315" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C315">
         <v>449.6</v>
@@ -8800,7 +9135,7 @@
         <v>136.5</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
@@ -8808,7 +9143,7 @@
         <v>369</v>
       </c>
       <c r="B316" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C316">
         <v>449.625</v>
@@ -8823,7 +9158,7 @@
         <v>103.5</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
@@ -8831,7 +9166,7 @@
         <v>370</v>
       </c>
       <c r="B317" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C317">
         <v>449.65</v>
@@ -8840,7 +9175,7 @@
         <v>7</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
@@ -8848,7 +9183,7 @@
         <v>371</v>
       </c>
       <c r="B318" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C318">
         <v>449.65</v>
@@ -8863,7 +9198,7 @@
         <v>167.9</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
@@ -8871,7 +9206,7 @@
         <v>372</v>
       </c>
       <c r="B319" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C319">
         <v>449.67500000000001</v>
@@ -8886,7 +9221,7 @@
         <v>173.8</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
@@ -8894,7 +9229,7 @@
         <v>373</v>
       </c>
       <c r="B320" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C320">
         <v>449.7</v>
@@ -8909,7 +9244,7 @@
         <v>127.3</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -8917,7 +9252,7 @@
         <v>374</v>
       </c>
       <c r="B321" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C321">
         <v>449.7</v>
@@ -8932,7 +9267,7 @@
         <v>100</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
@@ -8940,7 +9275,7 @@
         <v>375</v>
       </c>
       <c r="B322" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C322">
         <v>449.7</v>
@@ -8955,7 +9290,7 @@
         <v>136.5</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
@@ -8963,7 +9298,7 @@
         <v>376</v>
       </c>
       <c r="B323" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C323">
         <v>449.7</v>
@@ -8978,7 +9313,7 @@
         <v>100</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
@@ -8986,7 +9321,7 @@
         <v>377</v>
       </c>
       <c r="B324" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C324">
         <v>449.72500000000002</v>
@@ -8995,7 +9330,7 @@
         <v>7</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
@@ -9003,7 +9338,7 @@
         <v>378</v>
       </c>
       <c r="B325" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C325">
         <v>449.72500000000002</v>
@@ -9018,7 +9353,7 @@
         <v>151.4</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
@@ -9026,7 +9361,7 @@
         <v>379</v>
       </c>
       <c r="B326" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C326">
         <v>449.75</v>
@@ -9041,7 +9376,7 @@
         <v>131.80000000000001</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
@@ -9049,7 +9384,7 @@
         <v>380</v>
       </c>
       <c r="B327" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C327">
         <v>449.75</v>
@@ -9064,7 +9399,7 @@
         <v>151.4</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -9072,7 +9407,7 @@
         <v>381</v>
       </c>
       <c r="B328" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C328">
         <v>449.75</v>
@@ -9087,7 +9422,7 @@
         <v>123</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -9095,7 +9430,7 @@
         <v>382</v>
       </c>
       <c r="B329" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C329">
         <v>449.77499999999998</v>
@@ -9104,7 +9439,7 @@
         <v>7</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -9112,7 +9447,7 @@
         <v>383</v>
       </c>
       <c r="B330" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C330">
         <v>449.77499999999998</v>
@@ -9127,7 +9462,7 @@
         <v>123</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -9135,7 +9470,7 @@
         <v>384</v>
       </c>
       <c r="B331" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C331">
         <v>449.8</v>
@@ -9150,7 +9485,7 @@
         <v>103.5</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -9158,7 +9493,7 @@
         <v>386</v>
       </c>
       <c r="B332" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C332">
         <v>449.82499999999999</v>
@@ -9173,7 +9508,7 @@
         <v>167.9</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -9181,7 +9516,7 @@
         <v>387</v>
       </c>
       <c r="B333" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C333">
         <v>449.85</v>
@@ -9190,7 +9525,7 @@
         <v>7</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -9198,7 +9533,7 @@
         <v>388</v>
       </c>
       <c r="B334" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C334">
         <v>449.85</v>
@@ -9213,7 +9548,7 @@
         <v>146.19999999999999</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
@@ -9221,7 +9556,7 @@
         <v>389</v>
       </c>
       <c r="B335" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C335">
         <v>449.875</v>
@@ -9236,7 +9571,7 @@
         <v>167.9</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -9244,7 +9579,7 @@
         <v>390</v>
       </c>
       <c r="B336" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C336">
         <v>449.9</v>
@@ -9259,7 +9594,7 @@
         <v>100</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
@@ -9267,7 +9602,7 @@
         <v>391</v>
       </c>
       <c r="B337" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C337">
         <v>449.9</v>
@@ -9282,7 +9617,7 @@
         <v>123</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -9290,7 +9625,7 @@
         <v>392</v>
       </c>
       <c r="B338" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C338">
         <v>449.9</v>
@@ -9305,7 +9640,7 @@
         <v>100</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -9313,7 +9648,7 @@
         <v>393</v>
       </c>
       <c r="B339" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C339">
         <v>449.9</v>
@@ -9328,7 +9663,7 @@
         <v>136.5</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
@@ -9336,7 +9671,7 @@
         <v>394</v>
       </c>
       <c r="B340" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C340">
         <v>449.92500000000001</v>
@@ -9351,7 +9686,7 @@
         <v>100</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -9359,7 +9694,7 @@
         <v>395</v>
       </c>
       <c r="B341" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C341">
         <v>449.92500000000001</v>
@@ -9374,7 +9709,7 @@
         <v>100</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -9382,7 +9717,7 @@
         <v>396</v>
       </c>
       <c r="B342" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C342">
         <v>449.95</v>
@@ -9397,7 +9732,7 @@
         <v>123</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
@@ -9405,7 +9740,7 @@
         <v>397</v>
       </c>
       <c r="B343" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C343">
         <v>449.95</v>
@@ -9414,7 +9749,7 @@
         <v>7</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -9422,7 +9757,7 @@
         <v>398</v>
       </c>
       <c r="B344" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C344">
         <v>449.95</v>
@@ -9437,7 +9772,7 @@
         <v>100</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -9445,7 +9780,7 @@
         <v>399</v>
       </c>
       <c r="B345" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C345">
         <v>449.97500000000002</v>
@@ -9460,343 +9795,1038 @@
         <v>131.80000000000001</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="B346" t="s">
-        <v>228</v>
+        <v>471</v>
       </c>
       <c r="C346">
-        <v>462.5625</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>438</v>
+        <v>122.7</v>
+      </c>
+      <c r="G346" t="s">
+        <v>529</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="B347" t="s">
-        <v>229</v>
+        <v>472</v>
       </c>
       <c r="C347">
-        <v>462.58749999999998</v>
-      </c>
-      <c r="G347" s="1" t="s">
-        <v>438</v>
+        <v>122.72499999999999</v>
+      </c>
+      <c r="G347" t="s">
+        <v>529</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="B348" t="s">
-        <v>230</v>
+        <v>473</v>
       </c>
       <c r="C348">
-        <v>462.61250000000001</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>438</v>
+        <v>122.8</v>
+      </c>
+      <c r="G348" t="s">
+        <v>529</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="B349" t="s">
-        <v>231</v>
+        <v>474</v>
       </c>
       <c r="C349">
-        <v>462.63749999999999</v>
-      </c>
-      <c r="G349" s="1" t="s">
-        <v>438</v>
+        <v>122.95</v>
+      </c>
+      <c r="G349" t="s">
+        <v>529</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="B350" t="s">
-        <v>232</v>
+        <v>475</v>
       </c>
       <c r="C350">
-        <v>462.66250000000002</v>
-      </c>
-      <c r="G350" s="1" t="s">
-        <v>438</v>
+        <v>122.97499999999999</v>
+      </c>
+      <c r="G350" t="s">
+        <v>529</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="B351" t="s">
-        <v>233</v>
+        <v>476</v>
       </c>
       <c r="C351">
-        <v>462.6875</v>
-      </c>
-      <c r="G351" s="1" t="s">
-        <v>438</v>
+        <v>123</v>
+      </c>
+      <c r="G351" t="s">
+        <v>529</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="B352" t="s">
-        <v>234</v>
+        <v>477</v>
       </c>
       <c r="C352">
-        <v>462.71249999999998</v>
-      </c>
-      <c r="G352" s="1" t="s">
-        <v>438</v>
+        <v>123.075</v>
+      </c>
+      <c r="G352" t="s">
+        <v>529</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="B353" t="s">
-        <v>235</v>
+        <v>478</v>
       </c>
       <c r="C353">
-        <v>467.5625</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>438</v>
+        <v>123.05</v>
+      </c>
+      <c r="G353" t="s">
+        <v>529</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="B354" t="s">
-        <v>236</v>
+        <v>479</v>
       </c>
       <c r="C354">
-        <v>467.58749999999998</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>438</v>
+        <v>122.75</v>
+      </c>
+      <c r="G354" t="s">
+        <v>529</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>484</v>
+        <v>429</v>
       </c>
       <c r="B355" t="s">
-        <v>237</v>
+        <v>480</v>
       </c>
       <c r="C355">
-        <v>467.61250000000001</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>438</v>
+        <v>123.45</v>
+      </c>
+      <c r="G355" t="s">
+        <v>529</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="B356" t="s">
-        <v>238</v>
+        <v>481</v>
       </c>
       <c r="C356">
-        <v>467.63749999999999</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>438</v>
+        <v>123.3</v>
+      </c>
+      <c r="G356" t="s">
+        <v>529</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="B357" t="s">
-        <v>239</v>
+        <v>482</v>
       </c>
       <c r="C357">
-        <v>467.66250000000002</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>438</v>
+        <v>123.5</v>
+      </c>
+      <c r="G357" t="s">
+        <v>529</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="B358" t="s">
-        <v>240</v>
+        <v>483</v>
       </c>
       <c r="C358">
-        <v>467.6875</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>438</v>
+        <v>123.02500000000001</v>
+      </c>
+      <c r="G358" t="s">
+        <v>529</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="B359" t="s">
-        <v>241</v>
+        <v>484</v>
       </c>
       <c r="C359">
-        <v>467.71249999999998</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>438</v>
+        <v>123.75</v>
+      </c>
+      <c r="G359" t="s">
+        <v>529</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="B360" t="s">
-        <v>242</v>
+        <v>485</v>
       </c>
       <c r="C360">
-        <v>462.55</v>
-      </c>
-      <c r="G360" s="1" t="s">
-        <v>439</v>
+        <v>121.5</v>
+      </c>
+      <c r="G360" t="s">
+        <v>529</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="B361" t="s">
+        <v>486</v>
+      </c>
+      <c r="C361">
         <v>243</v>
       </c>
-      <c r="C361">
-        <v>462.57499999999999</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>439</v>
+      <c r="G361" t="s">
+        <v>529</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="B362" t="s">
-        <v>244</v>
+        <v>487</v>
       </c>
       <c r="C362">
-        <v>462.6</v>
-      </c>
-      <c r="G362" s="1" t="s">
-        <v>439</v>
+        <v>121.9</v>
+      </c>
+      <c r="G362" t="s">
+        <v>529</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="B363" t="s">
-        <v>245</v>
+        <v>488</v>
       </c>
       <c r="C363">
-        <v>462.625</v>
-      </c>
-      <c r="G363" s="1" t="s">
-        <v>439</v>
+        <v>123.77500000000001</v>
+      </c>
+      <c r="G363" t="s">
+        <v>529</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="B364" t="s">
-        <v>246</v>
+        <v>489</v>
       </c>
       <c r="C364">
-        <v>462.65</v>
-      </c>
-      <c r="G364" s="1" t="s">
-        <v>439</v>
+        <v>125.7</v>
+      </c>
+      <c r="G364" t="s">
+        <v>529</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="B365" t="s">
-        <v>247</v>
+        <v>490</v>
       </c>
       <c r="C365">
-        <v>462.67500000000001</v>
-      </c>
-      <c r="G365" s="1" t="s">
-        <v>439</v>
+        <v>121.1</v>
+      </c>
+      <c r="G365" t="s">
+        <v>529</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>495</v>
+        <v>440</v>
       </c>
       <c r="B366" t="s">
-        <v>248</v>
+        <v>491</v>
       </c>
       <c r="C366">
-        <v>462.7</v>
-      </c>
-      <c r="G366" s="1" t="s">
-        <v>439</v>
+        <v>120.9</v>
+      </c>
+      <c r="G366" t="s">
+        <v>529</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="B367" t="s">
-        <v>249</v>
+        <v>490</v>
       </c>
       <c r="C367">
-        <v>462.72500000000002</v>
-      </c>
-      <c r="G367" s="1" t="s">
-        <v>439</v>
+        <v>124.3</v>
+      </c>
+      <c r="G367" t="s">
+        <v>529</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>499</v>
+        <v>442</v>
       </c>
       <c r="B368" t="s">
-        <v>250</v>
+        <v>492</v>
       </c>
       <c r="C368">
-        <v>144.38999999999999</v>
+        <v>128.1</v>
+      </c>
+      <c r="G368" t="s">
+        <v>529</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>436</v>
+        <v>544</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369">
+        <v>443</v>
+      </c>
+      <c r="B369" t="s">
+        <v>493</v>
+      </c>
+      <c r="C369">
+        <v>126.25</v>
+      </c>
+      <c r="G369" t="s">
+        <v>529</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>444</v>
+      </c>
+      <c r="B370" t="s">
+        <v>494</v>
+      </c>
+      <c r="C370">
+        <v>124.9</v>
+      </c>
+      <c r="G370" t="s">
+        <v>529</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>445</v>
+      </c>
+      <c r="B371" t="s">
+        <v>495</v>
+      </c>
+      <c r="C371">
+        <v>135.5</v>
+      </c>
+      <c r="G371" t="s">
+        <v>529</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>446</v>
+      </c>
+      <c r="B372" t="s">
+        <v>496</v>
+      </c>
+      <c r="C372">
+        <v>127.3</v>
+      </c>
+      <c r="G372" t="s">
+        <v>529</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>447</v>
+      </c>
+      <c r="B373" t="s">
+        <v>497</v>
+      </c>
+      <c r="C373">
+        <v>132.65</v>
+      </c>
+      <c r="G373" t="s">
+        <v>529</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>448</v>
+      </c>
+      <c r="B374" t="s">
+        <v>498</v>
+      </c>
+      <c r="C374">
+        <v>118.3</v>
+      </c>
+      <c r="G374" t="s">
+        <v>529</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>449</v>
+      </c>
+      <c r="B375" t="s">
+        <v>499</v>
+      </c>
+      <c r="C375">
+        <v>119.05</v>
+      </c>
+      <c r="G375" t="s">
+        <v>529</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>450</v>
+      </c>
+      <c r="B376" t="s">
         <v>500</v>
       </c>
-      <c r="B369" t="s">
-        <v>251</v>
-      </c>
-      <c r="C369">
+      <c r="C376">
+        <v>134.42500000000001</v>
+      </c>
+      <c r="G376" t="s">
+        <v>529</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>451</v>
+      </c>
+      <c r="B377" t="s">
+        <v>501</v>
+      </c>
+      <c r="C377">
+        <v>125.5</v>
+      </c>
+      <c r="G377" t="s">
+        <v>529</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>452</v>
+      </c>
+      <c r="B378" t="s">
+        <v>502</v>
+      </c>
+      <c r="C378">
+        <v>121.6</v>
+      </c>
+      <c r="G378" t="s">
+        <v>529</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>453</v>
+      </c>
+      <c r="B379" t="s">
+        <v>503</v>
+      </c>
+      <c r="C379">
+        <v>127.15</v>
+      </c>
+      <c r="G379" t="s">
+        <v>529</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>454</v>
+      </c>
+      <c r="B380" t="s">
+        <v>504</v>
+      </c>
+      <c r="C380">
+        <v>121.7</v>
+      </c>
+      <c r="G380" t="s">
+        <v>529</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>455</v>
+      </c>
+      <c r="B381" t="s">
+        <v>505</v>
+      </c>
+      <c r="C381">
+        <v>118.7</v>
+      </c>
+      <c r="G381" t="s">
+        <v>529</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>456</v>
+      </c>
+      <c r="B382" t="s">
+        <v>506</v>
+      </c>
+      <c r="C382">
+        <v>125.55</v>
+      </c>
+      <c r="G382" t="s">
+        <v>529</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>475</v>
+      </c>
+      <c r="B383" t="s">
+        <v>507</v>
+      </c>
+      <c r="C383">
+        <v>462.5625</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>476</v>
+      </c>
+      <c r="B384" t="s">
+        <v>508</v>
+      </c>
+      <c r="C384">
+        <v>462.58749999999998</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>477</v>
+      </c>
+      <c r="B385" t="s">
+        <v>509</v>
+      </c>
+      <c r="C385">
+        <v>462.61250000000001</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>478</v>
+      </c>
+      <c r="B386" t="s">
+        <v>510</v>
+      </c>
+      <c r="C386">
+        <v>462.63749999999999</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>479</v>
+      </c>
+      <c r="B387" t="s">
+        <v>511</v>
+      </c>
+      <c r="C387">
+        <v>462.66250000000002</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>480</v>
+      </c>
+      <c r="B388" t="s">
+        <v>512</v>
+      </c>
+      <c r="C388">
+        <v>462.6875</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>481</v>
+      </c>
+      <c r="B389" t="s">
+        <v>513</v>
+      </c>
+      <c r="C389">
+        <v>462.71249999999998</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>482</v>
+      </c>
+      <c r="B390" t="s">
+        <v>514</v>
+      </c>
+      <c r="C390">
+        <v>467.5625</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>483</v>
+      </c>
+      <c r="B391" t="s">
+        <v>515</v>
+      </c>
+      <c r="C391">
+        <v>467.58749999999998</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>484</v>
+      </c>
+      <c r="B392" t="s">
+        <v>516</v>
+      </c>
+      <c r="C392">
+        <v>467.61250000000001</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>485</v>
+      </c>
+      <c r="B393" t="s">
+        <v>517</v>
+      </c>
+      <c r="C393">
+        <v>467.63749999999999</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>486</v>
+      </c>
+      <c r="B394" t="s">
+        <v>518</v>
+      </c>
+      <c r="C394">
+        <v>467.66250000000002</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>487</v>
+      </c>
+      <c r="B395" t="s">
+        <v>519</v>
+      </c>
+      <c r="C395">
+        <v>467.6875</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>488</v>
+      </c>
+      <c r="B396" t="s">
+        <v>520</v>
+      </c>
+      <c r="C396">
+        <v>467.71249999999998</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>489</v>
+      </c>
+      <c r="B397" t="s">
+        <v>521</v>
+      </c>
+      <c r="C397">
+        <v>462.55</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>490</v>
+      </c>
+      <c r="B398" t="s">
+        <v>522</v>
+      </c>
+      <c r="C398">
+        <v>462.57499999999999</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>491</v>
+      </c>
+      <c r="B399" t="s">
+        <v>523</v>
+      </c>
+      <c r="C399">
+        <v>462.6</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>492</v>
+      </c>
+      <c r="B400" t="s">
+        <v>524</v>
+      </c>
+      <c r="C400">
+        <v>462.625</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>493</v>
+      </c>
+      <c r="B401" t="s">
+        <v>525</v>
+      </c>
+      <c r="C401">
+        <v>462.65</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>494</v>
+      </c>
+      <c r="B402" t="s">
+        <v>526</v>
+      </c>
+      <c r="C402">
+        <v>462.67500000000001</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>495</v>
+      </c>
+      <c r="B403" t="s">
+        <v>527</v>
+      </c>
+      <c r="C403">
+        <v>462.7</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>496</v>
+      </c>
+      <c r="B404" t="s">
+        <v>528</v>
+      </c>
+      <c r="C404">
+        <v>462.72500000000002</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>499</v>
+      </c>
+      <c r="B405" t="s">
+        <v>224</v>
+      </c>
+      <c r="C405">
+        <v>144.38999999999999</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>500</v>
+      </c>
+      <c r="B406" t="s">
+        <v>225</v>
+      </c>
+      <c r="C406">
         <v>145.80000000000001</v>
       </c>
-      <c r="H369" s="1" t="s">
-        <v>437</v>
+      <c r="H406" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
